--- a/Resources/PWA2_ Rubrics.xlsx
+++ b/Resources/PWA2_ Rubrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16920" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Creative Brief" sheetId="1" r:id="rId1"/>
@@ -1591,57 +1591,6 @@
     <xf numFmtId="0" fontId="49" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1676,32 +1625,83 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2036,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2053,61 +2053,61 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17">
       <c r="A1" s="4"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="13">
       <c r="A2" s="7"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="7"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="13">
       <c r="A3" s="5"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
@@ -2131,13 +2131,13 @@
     </row>
     <row r="7" spans="1:8" ht="13">
       <c r="A7" s="13"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="55">
@@ -2159,13 +2159,13 @@
     </row>
     <row r="9" spans="1:8" ht="13">
       <c r="A9" s="13"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="33">
@@ -2177,21 +2177,21 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="13">
       <c r="A11" s="13"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="88">
@@ -2213,13 +2213,13 @@
     </row>
     <row r="13" spans="1:8" ht="13">
       <c r="A13" s="13"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="44">
@@ -2241,13 +2241,13 @@
     </row>
     <row r="15" spans="1:8" ht="13">
       <c r="A15" s="13"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="44">
@@ -2256,10 +2256,10 @@
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="13"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="55">
@@ -2295,13 +2295,13 @@
     </row>
     <row r="19" spans="1:7" ht="13">
       <c r="A19" s="13"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="44">
@@ -2323,13 +2323,13 @@
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="13"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="88">
@@ -2338,10 +2338,10 @@
       <c r="C22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="3" t="s">
         <v>46</v>
       </c>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="23" spans="1:7" ht="13">
       <c r="A23" s="13"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7">
@@ -2364,10 +2364,10 @@
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2375,38 +2375,38 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="13"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2435,54 +2435,54 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
@@ -2490,10 +2490,10 @@
       <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="17" t="s">
         <v>57</v>
       </c>
@@ -2501,11 +2501,11 @@
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="50"/>
       <c r="F7" s="12"/>
     </row>
@@ -2514,10 +2514,10 @@
       <c r="B8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="6">
         <v>17</v>
       </c>
@@ -2528,10 +2528,10 @@
       <c r="B9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="6">
         <v>15</v>
       </c>
@@ -2542,10 +2542,10 @@
       <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="6">
         <v>17</v>
       </c>
@@ -2556,10 +2556,10 @@
       <c r="B11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="6">
         <v>17</v>
       </c>
@@ -2570,10 +2570,10 @@
       <c r="B12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="6">
         <v>17</v>
       </c>
@@ -2584,10 +2584,10 @@
       <c r="B13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="6">
         <v>17</v>
       </c>
@@ -2608,10 +2608,10 @@
       <c r="B15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="6">
         <v>-5</v>
       </c>
@@ -2619,12 +2619,12 @@
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1">
       <c r="A16" s="13"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="12">
@@ -2677,16 +2677,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="C10:D10"/>
@@ -2694,6 +2684,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2722,54 +2722,54 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
@@ -2777,10 +2777,10 @@
       <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="17" t="s">
         <v>57</v>
       </c>
@@ -2788,11 +2788,11 @@
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="50"/>
       <c r="F7" s="12"/>
     </row>
@@ -2801,10 +2801,10 @@
       <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="6">
         <v>20</v>
       </c>
@@ -2815,10 +2815,10 @@
       <c r="B9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="6">
         <v>20</v>
       </c>
@@ -2829,10 +2829,10 @@
       <c r="B10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="6">
         <v>20</v>
       </c>
@@ -2843,10 +2843,10 @@
       <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="6">
         <v>20</v>
       </c>
@@ -2857,10 +2857,10 @@
       <c r="B12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="6">
         <v>20</v>
       </c>
@@ -2881,10 +2881,10 @@
       <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="6">
         <v>-5</v>
       </c>
@@ -2892,12 +2892,12 @@
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
       <c r="A15" s="13"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="12">
@@ -2950,22 +2950,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2980,79 +2980,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="4"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
+      <c r="F1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="13">
       <c r="A2" s="7"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="7"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="5"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -3071,18 +3073,18 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+    <row r="7" spans="1:8" ht="13">
       <c r="A7" s="13"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1">
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -3099,44 +3101,44 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
+    <row r="9" spans="1:8" ht="13">
       <c r="A9" s="13"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
+    <row r="10" spans="1:8" ht="33">
       <c r="A10" s="2"/>
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+    <row r="11" spans="1:8" ht="13">
       <c r="A11" s="13"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="27.75" customHeight="1">
+    <row r="12" spans="1:8" ht="55">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
@@ -3153,18 +3155,18 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
+    <row r="13" spans="1:8" ht="13">
       <c r="A13" s="13"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="27.75" customHeight="1">
+    <row r="14" spans="1:8" ht="44">
       <c r="A14" s="13"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
@@ -3183,13 +3185,13 @@
     </row>
     <row r="15" spans="1:8" ht="13">
       <c r="A15" s="13"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="33">
@@ -3198,10 +3200,10 @@
       <c r="C16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="3" t="s">
         <v>111</v>
       </c>
@@ -3209,13 +3211,13 @@
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="13"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="66">
@@ -3237,13 +3239,13 @@
     </row>
     <row r="19" spans="1:7" ht="13">
       <c r="A19" s="13"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="44">
@@ -3252,10 +3254,10 @@
       <c r="C20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="14" t="s">
         <v>120</v>
       </c>
@@ -3263,13 +3265,13 @@
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="13"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="44">
@@ -3291,64 +3293,64 @@
     </row>
     <row r="23" spans="1:7" ht="13">
       <c r="A23" s="13"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="12">
+    <row r="24" spans="1:7">
       <c r="A24" s="13"/>
       <c r="B24" s="8"/>
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="12">
+    <row r="25" spans="1:7">
       <c r="A25" s="13"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3363,79 +3365,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="32.83203125" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="4"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
+      <c r="F1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="13">
       <c r="A2" s="7"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="7"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="5"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -3454,18 +3458,18 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+    <row r="7" spans="1:8" ht="13">
       <c r="A7" s="13"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1">
+    <row r="8" spans="1:8" ht="44">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -3482,18 +3486,18 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
+    <row r="9" spans="1:8" ht="13">
       <c r="A9" s="13"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
+    <row r="10" spans="1:8" ht="55">
       <c r="A10" s="2"/>
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
@@ -3510,18 +3514,18 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+    <row r="11" spans="1:8" ht="13">
       <c r="A11" s="13"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="27.75" customHeight="1">
+    <row r="12" spans="1:8" ht="99">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
@@ -3538,18 +3542,18 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
+    <row r="13" spans="1:8" ht="13">
       <c r="A13" s="13"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="27.75" customHeight="1">
+    <row r="14" spans="1:8" ht="66">
       <c r="A14" s="13"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
@@ -3568,13 +3572,13 @@
     </row>
     <row r="15" spans="1:8" ht="13">
       <c r="A15" s="13"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="88">
@@ -3596,13 +3600,13 @@
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="13"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="55">
@@ -3624,23 +3628,23 @@
     </row>
     <row r="19" spans="1:7" ht="13">
       <c r="A19" s="13"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="44">
       <c r="A20" s="13"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="3" t="s">
         <v>150</v>
       </c>
@@ -3648,13 +3652,13 @@
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="13"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="99">
@@ -3676,13 +3680,13 @@
     </row>
     <row r="23" spans="1:7" ht="13">
       <c r="A23" s="13"/>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="88">
@@ -3704,13 +3708,13 @@
     </row>
     <row r="25" spans="1:7" ht="13">
       <c r="A25" s="13"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="99">
@@ -3732,13 +3736,13 @@
     </row>
     <row r="27" spans="1:7" ht="13">
       <c r="A27" s="13"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="44">
@@ -3760,13 +3764,13 @@
     </row>
     <row r="29" spans="1:7" ht="13">
       <c r="A29" s="13"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="44">
@@ -3788,13 +3792,13 @@
     </row>
     <row r="31" spans="1:7" ht="13">
       <c r="A31" s="13"/>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7" ht="44">
@@ -3816,13 +3820,13 @@
     </row>
     <row r="33" spans="1:7" ht="13">
       <c r="A33" s="13"/>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="77">
@@ -3844,68 +3848,68 @@
     </row>
     <row r="35" spans="1:7" ht="13">
       <c r="A35" s="13"/>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="12">
+    <row r="36" spans="1:7">
       <c r="A36" s="13"/>
       <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="24"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="12">
+    <row r="37" spans="1:7">
       <c r="A37" s="13"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
